--- a/data/input/absenteeism_data_41.xlsx
+++ b/data/input/absenteeism_data_41.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13537</v>
+        <v>78557</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Enzo da Rocha</t>
+          <t>Dra. Maitê Moreira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45103</v>
+        <v>45082</v>
       </c>
       <c r="G2" t="n">
-        <v>9752.620000000001</v>
+        <v>5195.94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>79687</v>
+        <v>67326</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Francisco Ramos</t>
+          <t>Eduardo Azevedo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,55 +519,55 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45099</v>
+        <v>45091</v>
       </c>
       <c r="G3" t="n">
-        <v>2798.74</v>
+        <v>8912.09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>58966</v>
+        <v>18635</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Breno Nogueira</t>
+          <t>Daniel Fogaça</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45082</v>
+        <v>45092</v>
       </c>
       <c r="G4" t="n">
-        <v>5902.53</v>
+        <v>5423.69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>36741</v>
+        <v>56362</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Heitor Ferreira</t>
+          <t>Dr. Caio Viana</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,191 +577,191 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45092</v>
+        <v>45104</v>
       </c>
       <c r="G5" t="n">
-        <v>5254.79</v>
+        <v>3674.93</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>84445</v>
+        <v>28206</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Francisco Fernandes</t>
+          <t>Renan Monteiro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45105</v>
+        <v>45093</v>
       </c>
       <c r="G6" t="n">
-        <v>7418.23</v>
+        <v>11161.21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15773</v>
+        <v>35071</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Enzo Almeida</t>
+          <t>Leandro Gonçalves</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45092</v>
+        <v>45080</v>
       </c>
       <c r="G7" t="n">
-        <v>4096.65</v>
+        <v>7456.33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>45521</v>
+        <v>217</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Elisa Carvalho</t>
+          <t>Alice Peixoto</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45105</v>
+        <v>45098</v>
       </c>
       <c r="G8" t="n">
-        <v>12284.77</v>
+        <v>4852.82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2099</v>
+        <v>15389</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Valentina Lima</t>
+          <t>Lorena Nunes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45103</v>
+        <v>45099</v>
       </c>
       <c r="G9" t="n">
-        <v>6845.05</v>
+        <v>3255.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7369</v>
+        <v>35220</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Emilly Novaes</t>
+          <t>Rodrigo da Rocha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45081</v>
+        <v>45088</v>
       </c>
       <c r="G10" t="n">
-        <v>4059.27</v>
+        <v>6353.51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>74673</v>
+        <v>77542</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Breno Lima</t>
+          <t>Dra. Maria Sophia Oliveira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45085</v>
+        <v>45088</v>
       </c>
       <c r="G11" t="n">
-        <v>3841.91</v>
+        <v>3546.64</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_41.xlsx
+++ b/data/input/absenteeism_data_41.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>78557</v>
+        <v>37378</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dra. Maitê Moreira</t>
+          <t>Lívia Fernandes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45082</v>
+        <v>45097</v>
       </c>
       <c r="G2" t="n">
-        <v>5195.94</v>
+        <v>2787.71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67326</v>
+        <v>47690</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eduardo Azevedo</t>
+          <t>Theo da Rosa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,143 +523,143 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45091</v>
+        <v>45079</v>
       </c>
       <c r="G3" t="n">
-        <v>8912.09</v>
+        <v>7111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>18635</v>
+        <v>40490</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Daniel Fogaça</t>
+          <t>Brenda Pinto</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45092</v>
+        <v>45095</v>
       </c>
       <c r="G4" t="n">
-        <v>5423.69</v>
+        <v>2734.46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>56362</v>
+        <v>76346</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dr. Caio Viana</t>
+          <t>Emanuelly da Mota</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45104</v>
+        <v>45084</v>
       </c>
       <c r="G5" t="n">
-        <v>3674.93</v>
+        <v>7616.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>28206</v>
+        <v>1293</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Renan Monteiro</t>
+          <t>Sr. Davi Luiz Silva</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45093</v>
+        <v>45079</v>
       </c>
       <c r="G6" t="n">
-        <v>11161.21</v>
+        <v>10202.58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>35071</v>
+        <v>91398</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Leandro Gonçalves</t>
+          <t>Cauã Nogueira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45080</v>
+        <v>45090</v>
       </c>
       <c r="G7" t="n">
-        <v>7456.33</v>
+        <v>6254.44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>217</v>
+        <v>92351</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Alice Peixoto</t>
+          <t>Rafael Jesus</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,80 +668,80 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45098</v>
+        <v>45104</v>
       </c>
       <c r="G8" t="n">
-        <v>4852.82</v>
+        <v>3078.63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>15389</v>
+        <v>93715</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lorena Nunes</t>
+          <t>Davi Lucca Costela</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45099</v>
+        <v>45095</v>
       </c>
       <c r="G9" t="n">
-        <v>3255.08</v>
+        <v>9206.18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>35220</v>
+        <v>11675</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rodrigo da Rocha</t>
+          <t>Daniel Castro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45088</v>
+        <v>45082</v>
       </c>
       <c r="G10" t="n">
-        <v>6353.51</v>
+        <v>11961.83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>77542</v>
+        <v>51298</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dra. Maria Sophia Oliveira</t>
+          <t>Carlos Eduardo Cunha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45088</v>
+        <v>45104</v>
       </c>
       <c r="G11" t="n">
-        <v>3546.64</v>
+        <v>11213.33</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_41.xlsx
+++ b/data/input/absenteeism_data_41.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37378</v>
+        <v>20546</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lívia Fernandes</t>
+          <t>Davi Costela</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>45097</v>
       </c>
       <c r="G2" t="n">
-        <v>2787.71</v>
+        <v>2758.56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>47690</v>
+        <v>652</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Theo da Rosa</t>
+          <t>Beatriz Barbosa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45079</v>
+        <v>45094</v>
       </c>
       <c r="G3" t="n">
-        <v>7111</v>
+        <v>11402.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>40490</v>
+        <v>48299</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brenda Pinto</t>
+          <t>Lavínia da Paz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45095</v>
+        <v>45089</v>
       </c>
       <c r="G4" t="n">
-        <v>2734.46</v>
+        <v>10964.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>76346</v>
+        <v>88784</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Emanuelly da Mota</t>
+          <t>Alexia Carvalho</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,114 +581,114 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45084</v>
+        <v>45093</v>
       </c>
       <c r="G5" t="n">
-        <v>7616.2</v>
+        <v>7396.22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1293</v>
+        <v>17476</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. Davi Luiz Silva</t>
+          <t>Ana Júlia Cardoso</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>45079</v>
       </c>
       <c r="G6" t="n">
-        <v>10202.58</v>
+        <v>5521.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>91398</v>
+        <v>32769</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cauã Nogueira</t>
+          <t>Maria Ribeiro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45090</v>
+        <v>45098</v>
       </c>
       <c r="G7" t="n">
-        <v>6254.44</v>
+        <v>3430.78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>92351</v>
+        <v>37421</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rafael Jesus</t>
+          <t>Maria Costa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45104</v>
+        <v>45094</v>
       </c>
       <c r="G8" t="n">
-        <v>3078.63</v>
+        <v>9284.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>93715</v>
+        <v>46016</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Davi Lucca Costela</t>
+          <t>Sr. Igor Ferreira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,27 +697,27 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>45095</v>
       </c>
       <c r="G9" t="n">
-        <v>9206.18</v>
+        <v>12414.14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11675</v>
+        <v>96233</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Daniel Castro</t>
+          <t>Vitória Freitas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45082</v>
+        <v>45088</v>
       </c>
       <c r="G10" t="n">
-        <v>11961.83</v>
+        <v>10804.42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>51298</v>
+        <v>22371</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Cunha</t>
+          <t>João Azevedo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45104</v>
+        <v>45081</v>
       </c>
       <c r="G11" t="n">
-        <v>11213.33</v>
+        <v>3481.1</v>
       </c>
     </row>
   </sheetData>
